--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mdk-Alk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mdk-Alk.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H2">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I2">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J2">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,22 +561,22 @@
         <v>0.25387</v>
       </c>
       <c r="O2">
-        <v>0.9779614855676814</v>
+        <v>0.8215990550008899</v>
       </c>
       <c r="P2">
-        <v>0.9779614855676816</v>
+        <v>0.82159905500089</v>
       </c>
       <c r="Q2">
-        <v>0.1120432960855555</v>
+        <v>0.1844928577244445</v>
       </c>
       <c r="R2">
-        <v>1.00838966477</v>
+        <v>1.66043571952</v>
       </c>
       <c r="S2">
-        <v>0.01484586999388722</v>
+        <v>0.01618993795127793</v>
       </c>
       <c r="T2">
-        <v>0.01484586999388722</v>
+        <v>0.01618993795127793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H3">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I3">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J3">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.001907</v>
+        <v>0.018375</v>
       </c>
       <c r="N3">
-        <v>0.005721</v>
+        <v>0.05512499999999999</v>
       </c>
       <c r="O3">
-        <v>0.02203851443231853</v>
+        <v>0.17840094499911</v>
       </c>
       <c r="P3">
-        <v>0.02203851443231854</v>
+        <v>0.17840094499911</v>
       </c>
       <c r="Q3">
-        <v>0.002524913132333333</v>
+        <v>0.040060538</v>
       </c>
       <c r="R3">
-        <v>0.022724218191</v>
+        <v>0.360544842</v>
       </c>
       <c r="S3">
-        <v>0.0003345539931265168</v>
+        <v>0.003515461967007507</v>
       </c>
       <c r="T3">
-        <v>0.0003345539931265167</v>
+        <v>0.003515461967007507</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>243.529606</v>
       </c>
       <c r="I4">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J4">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,10 +685,10 @@
         <v>0.25387</v>
       </c>
       <c r="O4">
-        <v>0.9779614855676814</v>
+        <v>0.8215990550008899</v>
       </c>
       <c r="P4">
-        <v>0.9779614855676816</v>
+        <v>0.82159905500089</v>
       </c>
       <c r="Q4">
         <v>6.869429008357778</v>
@@ -697,10 +697,10 @@
         <v>61.82486107522</v>
       </c>
       <c r="S4">
-        <v>0.9102075139992658</v>
+        <v>0.6028180753323846</v>
       </c>
       <c r="T4">
-        <v>0.9102075139992657</v>
+        <v>0.6028180753323847</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>243.529606</v>
       </c>
       <c r="I5">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J5">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.001907</v>
+        <v>0.018375</v>
       </c>
       <c r="N5">
-        <v>0.005721</v>
+        <v>0.05512499999999999</v>
       </c>
       <c r="O5">
-        <v>0.02203851443231853</v>
+        <v>0.17840094499911</v>
       </c>
       <c r="P5">
-        <v>0.02203851443231854</v>
+        <v>0.17840094499911</v>
       </c>
       <c r="Q5">
-        <v>0.1548036528806667</v>
+        <v>1.49161883675</v>
       </c>
       <c r="R5">
-        <v>1.393232875926</v>
+        <v>13.42456953075</v>
       </c>
       <c r="S5">
-        <v>0.02051166812774176</v>
+        <v>0.1308951290136594</v>
       </c>
       <c r="T5">
-        <v>0.02051166812774175</v>
+        <v>0.1308951290136594</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H6">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I6">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J6">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,22 +809,22 @@
         <v>0.25387</v>
       </c>
       <c r="O6">
-        <v>0.9779614855676814</v>
+        <v>0.8215990550008899</v>
       </c>
       <c r="P6">
-        <v>0.9779614855676816</v>
+        <v>0.82159905500089</v>
       </c>
       <c r="Q6">
-        <v>0.2983747085577778</v>
+        <v>2.172472553893333</v>
       </c>
       <c r="R6">
-        <v>2.68537237702</v>
+        <v>19.55225298504</v>
       </c>
       <c r="S6">
-        <v>0.03953500376613626</v>
+        <v>0.1906425879148123</v>
       </c>
       <c r="T6">
-        <v>0.03953500376613625</v>
+        <v>0.1906425879148123</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H7">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I7">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J7">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.001907</v>
+        <v>0.018375</v>
       </c>
       <c r="N7">
-        <v>0.005721</v>
+        <v>0.05512499999999999</v>
       </c>
       <c r="O7">
-        <v>0.02203851443231853</v>
+        <v>0.17840094499911</v>
       </c>
       <c r="P7">
-        <v>0.02203851443231854</v>
+        <v>0.17840094499911</v>
       </c>
       <c r="Q7">
-        <v>0.006723920540666667</v>
+        <v>0.4717278509999999</v>
       </c>
       <c r="R7">
-        <v>0.06051528486600001</v>
+        <v>4.245550658999999</v>
       </c>
       <c r="S7">
-        <v>0.0008909274689646889</v>
+        <v>0.04139588237603509</v>
       </c>
       <c r="T7">
-        <v>0.0008909274689646887</v>
+        <v>0.04139588237603509</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H8">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I8">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J8">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,22 +933,22 @@
         <v>0.25387</v>
       </c>
       <c r="O8">
-        <v>0.9779614855676814</v>
+        <v>0.8215990550008899</v>
       </c>
       <c r="P8">
-        <v>0.9779614855676816</v>
+        <v>0.82159905500089</v>
       </c>
       <c r="Q8">
-        <v>0.1009281340833333</v>
+        <v>0.1361589151255555</v>
       </c>
       <c r="R8">
-        <v>0.90835320675</v>
+        <v>1.22543023613</v>
       </c>
       <c r="S8">
-        <v>0.01337309780839223</v>
+        <v>0.01194845380241508</v>
       </c>
       <c r="T8">
-        <v>0.01337309780839223</v>
+        <v>0.01194845380241508</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H9">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I9">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J9">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.001907</v>
+        <v>0.018375</v>
       </c>
       <c r="N9">
-        <v>0.005721</v>
+        <v>0.05512499999999999</v>
       </c>
       <c r="O9">
-        <v>0.02203851443231853</v>
+        <v>0.17840094499911</v>
       </c>
       <c r="P9">
-        <v>0.02203851443231854</v>
+        <v>0.17840094499911</v>
       </c>
       <c r="Q9">
-        <v>0.002274431225</v>
+        <v>0.029565368875</v>
       </c>
       <c r="R9">
-        <v>0.020469881025</v>
+        <v>0.266088319875</v>
       </c>
       <c r="S9">
-        <v>0.0003013648424855712</v>
+        <v>0.002594471642408048</v>
       </c>
       <c r="T9">
-        <v>0.0003013648424855711</v>
+        <v>0.002594471642408048</v>
       </c>
     </row>
   </sheetData>
